--- a/Document/My Ais/T9/T9_Prod_MyAIS_APP_3BE_TH.xlsx
+++ b/Document/My Ais/T9/T9_Prod_MyAIS_APP_3BE_TH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN T9\My Ais\T9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RobotFramework\Document\My Ais\T9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1095" windowWidth="20115" windowHeight="6975" tabRatio="879" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="1095" windowWidth="20115" windowHeight="6975" tabRatio="879" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="30" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="2148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="2158">
   <si>
     <t>ADVANCE INFO SERVICE (AIS)</t>
   </si>
@@ -22906,6 +22906,85 @@
 6.กดปุ่ม "ต่อไป"
 7.ตรวจสอบ popup msg: กรุณาเลือกช่องทางที่ต้องการเติมเงิน
 8.จับภาพหน้าจอ</t>
+  </si>
+  <si>
+    <t>F10 : Roaming Package (International Service)</t>
+  </si>
+  <si>
+    <t>ตรวจสอบหน้า บริการระหว่างประเทศ</t>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. เลือกเมนู "แพ็กเกจ"
+3. กดเมนู "บริการระหว่างประเทศ"
+4. ตรวจสอบหน้า "บริการระหว่างประเทศ"
+- บริการระหว่างประเทศ
+- เบอร์โทรศัพท์
+- บริการข้ามแดนอัตโนมัติ (IR)
+5. จับภาพหน้าจอ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ตรวจสอบ popup message
+กรณี เปิดใช้งาน "บริการข้ามแดนอัตโนมัติ (IR)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>*popup msg, sms ยังไม่ขึ้นเนื่องจากหน้าจอทำการ loading</t>
+    </r>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. เลือกเมนู "แพ็กเกจ"
+3. กดเมนู "บริการระหว่างประเทศ"
+4. กดเปิดใช้งาน "บริการข้ามแดนอัตโนมัติ (IR)"
+5. ตรวจสอบ popup message "xxx"
+6. กด "ตกลง"
+7. ตรวจสอบ SMS "xxx"
+8. จับภาพหน้าจอ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ตรวจสอบ popup message
+กรณี ปิดใช้งาน "บริการข้ามแดนอัตโนมัติ (IR)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>*popup msg, sms ยังไม่ขึ้นเนื่องจากหน้าจอทำการ loading</t>
+    </r>
+  </si>
+  <si>
+    <t>1. เข้าสู่ระบบ My AIS
+2. เลือกเมนู "แพ็กเกจ"
+3. กดเมนู "บริการระหว่างประเทศ"
+4. กดเปิดใช้งาน "บริการข้ามแดนอัตโนมัติ (IR)"
+5. กด "ตกลง" (popup เปิด IR)
+6. กดปิดใช้งาน "บริการข้ามแดนอัตโนมัติ (IR)"
+7. ตรวจสอบ popup message "xxx"
+8. กด "ตกลง"
+9. ตรวจสอบ SMS "xxx"
+10. จับภาพหน้าจอ</t>
+  </si>
+  <si>
+    <t>F10_Package_3_1_Y_1_2</t>
+  </si>
+  <si>
+    <t>F10_Package_3_1_Y_2_2</t>
+  </si>
+  <si>
+    <t>F10_Package_3_1_Y_3_2</t>
   </si>
 </sst>
 </file>
@@ -24341,7 +24420,7 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="590">
+  <cellXfs count="592">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -25609,79 +25688,32 @@
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -25764,6 +25796,22 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -25776,24 +25824,118 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -25807,29 +25949,11 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -25858,54 +25982,34 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="41" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="21" borderId="38" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -25922,15 +26026,11 @@
     <xf numFmtId="0" fontId="49" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="41" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="49" fillId="20" borderId="43" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="22" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -25953,25 +26053,10 @@
     <xf numFmtId="0" fontId="67" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -30040,46 +30125,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="574" t="s">
+      <c r="A1" s="581" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="573" t="s">
+      <c r="B1" s="569" t="s">
         <v>951</v>
       </c>
-      <c r="C1" s="573" t="s">
+      <c r="C1" s="569" t="s">
         <v>952</v>
       </c>
-      <c r="D1" s="573" t="s">
+      <c r="D1" s="569" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="573" t="s">
+      <c r="E1" s="569" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="573" t="s">
+      <c r="F1" s="569" t="s">
         <v>953</v>
       </c>
-      <c r="G1" s="573" t="s">
+      <c r="G1" s="569" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="573" t="s">
+      <c r="H1" s="569" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="573" t="s">
+      <c r="I1" s="569" t="s">
         <v>954</v>
       </c>
-      <c r="J1" s="573" t="s">
+      <c r="J1" s="569" t="s">
         <v>955</v>
       </c>
-      <c r="K1" s="573" t="s">
+      <c r="K1" s="569" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="573" t="s">
+      <c r="L1" s="569" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="569" t="s">
+      <c r="M1" s="578" t="s">
         <v>956</v>
       </c>
-      <c r="N1" s="571" t="s">
+      <c r="N1" s="579" t="s">
         <v>957</v>
       </c>
     </row>
@@ -30097,41 +30182,41 @@
       <c r="K2" s="570"/>
       <c r="L2" s="570"/>
       <c r="M2" s="570"/>
-      <c r="N2" s="564"/>
+      <c r="N2" s="573"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="566" t="s">
+      <c r="A3" s="575" t="s">
         <v>958</v>
       </c>
-      <c r="B3" s="567"/>
-      <c r="C3" s="567"/>
-      <c r="D3" s="567"/>
-      <c r="E3" s="567"/>
-      <c r="F3" s="567"/>
-      <c r="G3" s="567"/>
-      <c r="H3" s="567"/>
-      <c r="I3" s="567"/>
-      <c r="J3" s="567"/>
-      <c r="K3" s="567"/>
-      <c r="L3" s="568"/>
+      <c r="B3" s="576"/>
+      <c r="C3" s="576"/>
+      <c r="D3" s="576"/>
+      <c r="E3" s="576"/>
+      <c r="F3" s="576"/>
+      <c r="G3" s="576"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="576"/>
+      <c r="J3" s="576"/>
+      <c r="K3" s="576"/>
+      <c r="L3" s="577"/>
       <c r="M3" s="231"/>
       <c r="N3" s="232"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="572" t="s">
+      <c r="A4" s="580" t="s">
         <v>959</v>
       </c>
-      <c r="B4" s="567"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="567"/>
-      <c r="E4" s="567"/>
-      <c r="F4" s="567"/>
-      <c r="G4" s="567"/>
-      <c r="H4" s="567"/>
-      <c r="I4" s="567"/>
-      <c r="J4" s="567"/>
-      <c r="K4" s="567"/>
-      <c r="L4" s="568"/>
+      <c r="B4" s="576"/>
+      <c r="C4" s="576"/>
+      <c r="D4" s="576"/>
+      <c r="E4" s="576"/>
+      <c r="F4" s="576"/>
+      <c r="G4" s="576"/>
+      <c r="H4" s="576"/>
+      <c r="I4" s="576"/>
+      <c r="J4" s="576"/>
+      <c r="K4" s="576"/>
+      <c r="L4" s="577"/>
       <c r="M4" s="233"/>
       <c r="N4" s="234"/>
     </row>
@@ -30303,20 +30388,20 @@
       <c r="N10" s="261"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="566" t="s">
+      <c r="A11" s="575" t="s">
         <v>980</v>
       </c>
-      <c r="B11" s="563"/>
-      <c r="C11" s="563"/>
-      <c r="D11" s="567"/>
-      <c r="E11" s="563"/>
-      <c r="F11" s="567"/>
-      <c r="G11" s="567"/>
-      <c r="H11" s="567"/>
-      <c r="I11" s="567"/>
-      <c r="J11" s="567"/>
-      <c r="K11" s="567"/>
-      <c r="L11" s="568"/>
+      <c r="B11" s="572"/>
+      <c r="C11" s="572"/>
+      <c r="D11" s="576"/>
+      <c r="E11" s="572"/>
+      <c r="F11" s="576"/>
+      <c r="G11" s="576"/>
+      <c r="H11" s="576"/>
+      <c r="I11" s="576"/>
+      <c r="J11" s="576"/>
+      <c r="K11" s="576"/>
+      <c r="L11" s="577"/>
       <c r="M11" s="231"/>
       <c r="N11" s="231"/>
     </row>
@@ -30377,20 +30462,20 @@
       <c r="N13" s="273"/>
     </row>
     <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="566" t="s">
+      <c r="A14" s="575" t="s">
         <v>988</v>
       </c>
-      <c r="B14" s="567"/>
-      <c r="C14" s="567"/>
-      <c r="D14" s="567"/>
-      <c r="E14" s="567"/>
-      <c r="F14" s="567"/>
-      <c r="G14" s="567"/>
-      <c r="H14" s="567"/>
-      <c r="I14" s="567"/>
-      <c r="J14" s="567"/>
-      <c r="K14" s="567"/>
-      <c r="L14" s="568"/>
+      <c r="B14" s="576"/>
+      <c r="C14" s="576"/>
+      <c r="D14" s="576"/>
+      <c r="E14" s="576"/>
+      <c r="F14" s="576"/>
+      <c r="G14" s="576"/>
+      <c r="H14" s="576"/>
+      <c r="I14" s="576"/>
+      <c r="J14" s="576"/>
+      <c r="K14" s="576"/>
+      <c r="L14" s="577"/>
       <c r="M14" s="272"/>
       <c r="N14" s="273"/>
     </row>
@@ -30451,20 +30536,20 @@
       <c r="N16" s="281"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="562" t="s">
+      <c r="A17" s="571" t="s">
         <v>994</v>
       </c>
-      <c r="B17" s="563"/>
-      <c r="C17" s="563"/>
-      <c r="D17" s="563"/>
-      <c r="E17" s="563"/>
-      <c r="F17" s="563"/>
-      <c r="G17" s="563"/>
-      <c r="H17" s="563"/>
-      <c r="I17" s="563"/>
-      <c r="J17" s="563"/>
-      <c r="K17" s="563"/>
-      <c r="L17" s="564"/>
+      <c r="B17" s="572"/>
+      <c r="C17" s="572"/>
+      <c r="D17" s="572"/>
+      <c r="E17" s="572"/>
+      <c r="F17" s="572"/>
+      <c r="G17" s="572"/>
+      <c r="H17" s="572"/>
+      <c r="I17" s="572"/>
+      <c r="J17" s="572"/>
+      <c r="K17" s="572"/>
+      <c r="L17" s="573"/>
       <c r="M17" s="282"/>
       <c r="N17" s="283"/>
     </row>
@@ -30781,20 +30866,20 @@
       <c r="N30" s="320"/>
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="565" t="s">
+      <c r="A31" s="574" t="s">
         <v>1032</v>
       </c>
-      <c r="B31" s="563"/>
-      <c r="C31" s="563"/>
-      <c r="D31" s="563"/>
-      <c r="E31" s="563"/>
-      <c r="F31" s="563"/>
-      <c r="G31" s="563"/>
-      <c r="H31" s="563"/>
-      <c r="I31" s="563"/>
-      <c r="J31" s="563"/>
-      <c r="K31" s="563"/>
-      <c r="L31" s="564"/>
+      <c r="B31" s="572"/>
+      <c r="C31" s="572"/>
+      <c r="D31" s="572"/>
+      <c r="E31" s="572"/>
+      <c r="F31" s="572"/>
+      <c r="G31" s="572"/>
+      <c r="H31" s="572"/>
+      <c r="I31" s="572"/>
+      <c r="J31" s="572"/>
+      <c r="K31" s="572"/>
+      <c r="L31" s="573"/>
       <c r="M31" s="321"/>
       <c r="N31" s="321"/>
     </row>
@@ -45258,11 +45343,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A17:L17"/>
     <mergeCell ref="A31:L31"/>
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="M1:M2"/>
@@ -45278,6 +45358,11 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -45304,56 +45389,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="577" t="s">
+      <c r="A1" s="584" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="579" t="s">
+      <c r="B1" s="586" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="579" t="s">
+      <c r="C1" s="586" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="580" t="s">
+      <c r="D1" s="587" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="580" t="s">
+      <c r="E1" s="587" t="s">
         <v>953</v>
       </c>
-      <c r="F1" s="579" t="s">
+      <c r="F1" s="586" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="579" t="s">
+      <c r="G1" s="586" t="s">
         <v>954</v>
       </c>
-      <c r="H1" s="579" t="s">
+      <c r="H1" s="586" t="s">
         <v>955</v>
       </c>
-      <c r="I1" s="579" t="s">
+      <c r="I1" s="586" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="579" t="s">
+      <c r="J1" s="586" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="582" t="s">
+      <c r="K1" s="589" t="s">
         <v>956</v>
       </c>
-      <c r="L1" s="575" t="s">
+      <c r="L1" s="582" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="578"/>
-      <c r="B2" s="578"/>
-      <c r="C2" s="578"/>
-      <c r="D2" s="581"/>
-      <c r="E2" s="581"/>
-      <c r="F2" s="578"/>
-      <c r="G2" s="578"/>
-      <c r="H2" s="578"/>
-      <c r="I2" s="578"/>
-      <c r="J2" s="578"/>
-      <c r="K2" s="578"/>
-      <c r="L2" s="576"/>
+      <c r="A2" s="585"/>
+      <c r="B2" s="585"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="588"/>
+      <c r="E2" s="588"/>
+      <c r="F2" s="585"/>
+      <c r="G2" s="585"/>
+      <c r="H2" s="585"/>
+      <c r="I2" s="585"/>
+      <c r="J2" s="585"/>
+      <c r="K2" s="585"/>
+      <c r="L2" s="583"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="342" t="s">
@@ -47708,8 +47793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -48495,7 +48580,7 @@
       <c r="D36" s="105" t="s">
         <v>255</v>
       </c>
-      <c r="E36" s="473" t="s">
+      <c r="E36" s="480" t="s">
         <v>256</v>
       </c>
       <c r="F36" s="118"/>
@@ -48518,7 +48603,7 @@
       <c r="D37" s="105" t="s">
         <v>258</v>
       </c>
-      <c r="E37" s="474"/>
+      <c r="E37" s="481"/>
       <c r="F37" s="118"/>
       <c r="G37" s="118"/>
       <c r="H37" s="118"/>
@@ -49153,7 +49238,7 @@
       <c r="M65" s="100"/>
     </row>
     <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="104" t="s">
+      <c r="A66" s="194" t="s">
         <v>296</v>
       </c>
       <c r="B66" s="105" t="s">
@@ -49176,7 +49261,7 @@
       <c r="M66" s="100"/>
     </row>
     <row r="67" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="104" t="s">
+      <c r="A67" s="194" t="s">
         <v>298</v>
       </c>
       <c r="B67" s="105" t="s">
@@ -49199,7 +49284,7 @@
       <c r="M67" s="100"/>
     </row>
     <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="104" t="s">
+      <c r="A68" s="194" t="s">
         <v>297</v>
       </c>
       <c r="B68" s="100" t="s">
@@ -49222,7 +49307,7 @@
       <c r="M68" s="100"/>
     </row>
     <row r="69" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="104" t="s">
+      <c r="A69" s="194" t="s">
         <v>564</v>
       </c>
       <c r="B69" s="105" t="s">
@@ -49245,41 +49330,94 @@
       <c r="M69" s="100"/>
       <c r="N69" s="100"/>
     </row>
-    <row r="70" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E70" s="121"/>
-      <c r="F70" s="122"/>
-      <c r="G70" s="122"/>
-      <c r="H70" s="122"/>
-      <c r="I70" s="122"/>
-      <c r="J70" s="122"/>
-      <c r="K70" s="123"/>
-    </row>
-    <row r="71" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E71" s="121"/>
-      <c r="F71" s="122"/>
-      <c r="G71" s="122"/>
-      <c r="H71" s="122"/>
-      <c r="I71" s="122"/>
-      <c r="J71" s="122"/>
-      <c r="K71" s="123"/>
-    </row>
-    <row r="72" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E72" s="121"/>
-      <c r="F72" s="122"/>
-      <c r="G72" s="122"/>
-      <c r="H72" s="122"/>
-      <c r="I72" s="122"/>
-      <c r="J72" s="122"/>
-      <c r="K72" s="123"/>
-    </row>
-    <row r="73" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E73" s="121"/>
-      <c r="F73" s="122"/>
-      <c r="G73" s="122"/>
-      <c r="H73" s="122"/>
-      <c r="I73" s="122"/>
-      <c r="J73" s="122"/>
-      <c r="K73" s="123"/>
+    <row r="70" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A70" s="98" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B70" s="99"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="100"/>
+      <c r="E70" s="119"/>
+      <c r="F70" s="118"/>
+      <c r="G70" s="118"/>
+      <c r="H70" s="118"/>
+      <c r="I70" s="118"/>
+      <c r="J70" s="118"/>
+      <c r="K70" s="117"/>
+      <c r="L70" s="100"/>
+      <c r="M70" s="100"/>
+    </row>
+    <row r="71" spans="1:14" s="479" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+      <c r="A71" s="590" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B71" s="475" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C71" s="475" t="s">
+        <v>201</v>
+      </c>
+      <c r="D71" s="475" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E71" s="591"/>
+      <c r="F71" s="478"/>
+      <c r="G71" s="477"/>
+      <c r="H71" s="477"/>
+      <c r="I71" s="477"/>
+      <c r="J71" s="477"/>
+      <c r="K71" s="477"/>
+      <c r="L71" s="478"/>
+      <c r="M71" s="591"/>
+      <c r="N71" s="591"/>
+    </row>
+    <row r="72" spans="1:14" s="479" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+      <c r="A72" s="590" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B72" s="475" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C72" s="475" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" s="475" t="s">
+        <v>2152</v>
+      </c>
+      <c r="E72" s="591"/>
+      <c r="F72" s="478"/>
+      <c r="G72" s="477"/>
+      <c r="H72" s="477"/>
+      <c r="I72" s="477"/>
+      <c r="J72" s="477"/>
+      <c r="K72" s="477"/>
+      <c r="L72" s="478"/>
+      <c r="M72" s="591"/>
+      <c r="N72" s="591"/>
+    </row>
+    <row r="73" spans="1:14" s="479" customFormat="1" ht="127.5" x14ac:dyDescent="0.15">
+      <c r="A73" s="590" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B73" s="475" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C73" s="475" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" s="475" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E73" s="591"/>
+      <c r="F73" s="478"/>
+      <c r="G73" s="477"/>
+      <c r="H73" s="477"/>
+      <c r="I73" s="477"/>
+      <c r="J73" s="477"/>
+      <c r="K73" s="477"/>
+      <c r="L73" s="478"/>
+      <c r="M73" s="591"/>
+      <c r="N73" s="591"/>
     </row>
     <row r="74" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="121"/>
@@ -61237,25 +61375,25 @@
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="483" t="s">
+      <c r="C5" s="518" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="484"/>
-      <c r="E5" s="485"/>
+      <c r="D5" s="519"/>
+      <c r="E5" s="520"/>
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="475"/>
-      <c r="I5" s="475"/>
-      <c r="J5" s="475"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="516"/>
+      <c r="J5" s="516"/>
     </row>
     <row r="6" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="505"/>
-      <c r="D6" s="506"/>
-      <c r="E6" s="507"/>
+      <c r="C6" s="492"/>
+      <c r="D6" s="493"/>
+      <c r="E6" s="494"/>
       <c r="F6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -61265,23 +61403,23 @@
       <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="486"/>
-      <c r="D7" s="487"/>
-      <c r="E7" s="488"/>
+      <c r="C7" s="521"/>
+      <c r="D7" s="522"/>
+      <c r="E7" s="523"/>
       <c r="F7" s="7"/>
-      <c r="H7" s="475"/>
-      <c r="I7" s="475"/>
-      <c r="J7" s="475"/>
+      <c r="H7" s="516"/>
+      <c r="I7" s="516"/>
+      <c r="J7" s="516"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="489" t="s">
+      <c r="C8" s="524" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="490"/>
-      <c r="E8" s="491"/>
+      <c r="D8" s="525"/>
+      <c r="E8" s="526"/>
       <c r="F8" s="7"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -61304,58 +61442,58 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B11" s="476" t="s">
+      <c r="B11" s="510" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="477"/>
-      <c r="D11" s="478"/>
-      <c r="E11" s="478"/>
-      <c r="F11" s="479"/>
+      <c r="C11" s="511"/>
+      <c r="D11" s="517"/>
+      <c r="E11" s="517"/>
+      <c r="F11" s="512"/>
     </row>
     <row r="12" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="480"/>
-      <c r="D12" s="481"/>
-      <c r="E12" s="481"/>
-      <c r="F12" s="482"/>
+      <c r="C12" s="503"/>
+      <c r="D12" s="505"/>
+      <c r="E12" s="505"/>
+      <c r="F12" s="506"/>
     </row>
     <row r="13" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="480"/>
-      <c r="D13" s="481"/>
-      <c r="E13" s="481"/>
-      <c r="F13" s="482"/>
+      <c r="C13" s="503"/>
+      <c r="D13" s="505"/>
+      <c r="E13" s="505"/>
+      <c r="F13" s="506"/>
     </row>
     <row r="14" spans="2:10" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="480"/>
-      <c r="D14" s="481"/>
-      <c r="E14" s="481"/>
-      <c r="F14" s="482"/>
+      <c r="C14" s="503"/>
+      <c r="D14" s="505"/>
+      <c r="E14" s="505"/>
+      <c r="F14" s="506"/>
     </row>
     <row r="15" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="480"/>
-      <c r="D15" s="481"/>
-      <c r="E15" s="481"/>
-      <c r="F15" s="482"/>
+      <c r="C15" s="503"/>
+      <c r="D15" s="505"/>
+      <c r="E15" s="505"/>
+      <c r="F15" s="506"/>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="516"/>
-      <c r="D16" s="517"/>
-      <c r="E16" s="517"/>
-      <c r="F16" s="518"/>
+      <c r="C16" s="507"/>
+      <c r="D16" s="508"/>
+      <c r="E16" s="508"/>
+      <c r="F16" s="509"/>
     </row>
     <row r="17" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -61365,13 +61503,13 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B18" s="476" t="s">
+      <c r="B18" s="510" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="477"/>
-      <c r="D18" s="477"/>
-      <c r="E18" s="477"/>
-      <c r="F18" s="479"/>
+      <c r="C18" s="511"/>
+      <c r="D18" s="511"/>
+      <c r="E18" s="511"/>
+      <c r="F18" s="512"/>
     </row>
     <row r="19" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
@@ -61383,10 +61521,10 @@
       <c r="D19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="511" t="s">
+      <c r="E19" s="498" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="519"/>
+      <c r="F19" s="513"/>
     </row>
     <row r="20" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -61398,10 +61536,10 @@
       <c r="D20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="480" t="s">
+      <c r="E20" s="503" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="492"/>
+      <c r="F20" s="504"/>
     </row>
     <row r="21" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B21" s="16" t="s">
@@ -61411,66 +61549,66 @@
         <v>80</v>
       </c>
       <c r="D21" s="19"/>
-      <c r="E21" s="480" t="s">
+      <c r="E21" s="503" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="492"/>
+      <c r="F21" s="504"/>
     </row>
     <row r="22" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="480"/>
-      <c r="F22" s="492"/>
+      <c r="E22" s="503"/>
+      <c r="F22" s="504"/>
     </row>
     <row r="23" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="480"/>
-      <c r="F23" s="492"/>
+      <c r="E23" s="503"/>
+      <c r="F23" s="504"/>
     </row>
     <row r="24" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="480"/>
-      <c r="F24" s="492"/>
+      <c r="E24" s="503"/>
+      <c r="F24" s="504"/>
     </row>
     <row r="25" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="480"/>
-      <c r="F25" s="492"/>
+      <c r="E25" s="503"/>
+      <c r="F25" s="504"/>
     </row>
     <row r="26" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="480"/>
-      <c r="F26" s="492"/>
+      <c r="E26" s="503"/>
+      <c r="F26" s="504"/>
     </row>
     <row r="27" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="480"/>
-      <c r="F27" s="492"/>
+      <c r="E27" s="503"/>
+      <c r="F27" s="504"/>
     </row>
     <row r="28" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="480"/>
-      <c r="F28" s="492"/>
+      <c r="E28" s="503"/>
+      <c r="F28" s="504"/>
     </row>
     <row r="29" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="493"/>
-      <c r="F29" s="494"/>
+      <c r="E29" s="514"/>
+      <c r="F29" s="515"/>
     </row>
     <row r="30" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -61480,67 +61618,67 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B31" s="508" t="s">
+      <c r="B31" s="495" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="509"/>
-      <c r="D31" s="509"/>
-      <c r="E31" s="510"/>
+      <c r="C31" s="496"/>
+      <c r="D31" s="496"/>
+      <c r="E31" s="497"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="511" t="s">
+      <c r="C32" s="498" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="512"/>
-      <c r="E32" s="512"/>
+      <c r="D32" s="499"/>
+      <c r="E32" s="499"/>
       <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
-      <c r="C33" s="497"/>
-      <c r="D33" s="498"/>
-      <c r="E33" s="498"/>
+      <c r="C33" s="484"/>
+      <c r="D33" s="485"/>
+      <c r="E33" s="485"/>
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
-      <c r="C34" s="513"/>
-      <c r="D34" s="514"/>
-      <c r="E34" s="515"/>
+      <c r="C34" s="500"/>
+      <c r="D34" s="501"/>
+      <c r="E34" s="502"/>
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
-      <c r="C35" s="495"/>
-      <c r="D35" s="496"/>
-      <c r="E35" s="496"/>
+      <c r="C35" s="482"/>
+      <c r="D35" s="483"/>
+      <c r="E35" s="483"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
-      <c r="C36" s="497"/>
-      <c r="D36" s="498"/>
-      <c r="E36" s="498"/>
+      <c r="C36" s="484"/>
+      <c r="D36" s="485"/>
+      <c r="E36" s="485"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
-      <c r="C37" s="499"/>
-      <c r="D37" s="500"/>
-      <c r="E37" s="501"/>
+      <c r="C37" s="486"/>
+      <c r="D37" s="487"/>
+      <c r="E37" s="488"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
-      <c r="C38" s="502"/>
-      <c r="D38" s="503"/>
-      <c r="E38" s="504"/>
+      <c r="C38" s="489"/>
+      <c r="D38" s="490"/>
+      <c r="E38" s="491"/>
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -61566,6 +61704,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -61582,22 +61736,6 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -61634,10 +61772,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="520" t="s">
+      <c r="A1" s="563" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="520"/>
+      <c r="B1" s="563"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -61672,39 +61810,39 @@
       <c r="AH1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="521" t="s">
+      <c r="A2" s="564" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="521" t="s">
+      <c r="B2" s="564" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="521" t="s">
+      <c r="C2" s="564" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="524" t="s">
+      <c r="D2" s="567" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="524"/>
-      <c r="F2" s="524"/>
+      <c r="E2" s="567"/>
+      <c r="F2" s="567"/>
       <c r="G2" s="533" t="s">
         <v>37</v>
       </c>
       <c r="H2" s="534"/>
       <c r="I2" s="534"/>
-      <c r="J2" s="535"/>
-      <c r="K2" s="551" t="s">
+      <c r="J2" s="539"/>
+      <c r="K2" s="527" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="551"/>
+      <c r="L2" s="527"/>
       <c r="M2" s="533" t="s">
         <v>64</v>
       </c>
       <c r="N2" s="534"/>
-      <c r="O2" s="535"/>
+      <c r="O2" s="539"/>
       <c r="P2" s="533" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="535"/>
+      <c r="Q2" s="539"/>
       <c r="R2" s="533" t="s">
         <v>60</v>
       </c>
@@ -61715,207 +61853,207 @@
       <c r="U2" s="534"/>
       <c r="V2" s="534"/>
       <c r="W2" s="534"/>
-      <c r="X2" s="535"/>
+      <c r="X2" s="539"/>
       <c r="Y2" s="533" t="s">
         <v>48</v>
       </c>
       <c r="Z2" s="534"/>
       <c r="AA2" s="534"/>
-      <c r="AB2" s="535"/>
-      <c r="AC2" s="527" t="s">
+      <c r="AB2" s="539"/>
+      <c r="AC2" s="548" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="528"/>
-      <c r="AE2" s="528"/>
-      <c r="AF2" s="543"/>
-      <c r="AG2" s="527" t="s">
+      <c r="AD2" s="549"/>
+      <c r="AE2" s="549"/>
+      <c r="AF2" s="558"/>
+      <c r="AG2" s="548" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="528"/>
-      <c r="AI2" s="528"/>
+      <c r="AH2" s="549"/>
+      <c r="AI2" s="549"/>
     </row>
     <row r="3" spans="1:35" s="43" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="522"/>
-      <c r="B3" s="522"/>
-      <c r="C3" s="522"/>
-      <c r="D3" s="524"/>
-      <c r="E3" s="524"/>
-      <c r="F3" s="524"/>
-      <c r="G3" s="529"/>
-      <c r="H3" s="530"/>
-      <c r="I3" s="530"/>
-      <c r="J3" s="536"/>
-      <c r="K3" s="551" t="s">
+      <c r="A3" s="565"/>
+      <c r="B3" s="565"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="567"/>
+      <c r="E3" s="567"/>
+      <c r="F3" s="567"/>
+      <c r="G3" s="535"/>
+      <c r="H3" s="536"/>
+      <c r="I3" s="536"/>
+      <c r="J3" s="540"/>
+      <c r="K3" s="527" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="551"/>
-      <c r="M3" s="529"/>
-      <c r="N3" s="530"/>
-      <c r="O3" s="536"/>
-      <c r="P3" s="529"/>
-      <c r="Q3" s="536"/>
-      <c r="R3" s="529"/>
-      <c r="S3" s="530"/>
-      <c r="T3" s="529"/>
-      <c r="U3" s="530"/>
-      <c r="V3" s="530"/>
-      <c r="W3" s="530"/>
-      <c r="X3" s="536"/>
-      <c r="Y3" s="529"/>
-      <c r="Z3" s="530"/>
-      <c r="AA3" s="530"/>
-      <c r="AB3" s="536"/>
-      <c r="AC3" s="529"/>
-      <c r="AD3" s="530"/>
-      <c r="AE3" s="530"/>
-      <c r="AF3" s="536"/>
-      <c r="AG3" s="529"/>
-      <c r="AH3" s="530"/>
-      <c r="AI3" s="530"/>
+      <c r="L3" s="527"/>
+      <c r="M3" s="535"/>
+      <c r="N3" s="536"/>
+      <c r="O3" s="540"/>
+      <c r="P3" s="535"/>
+      <c r="Q3" s="540"/>
+      <c r="R3" s="535"/>
+      <c r="S3" s="536"/>
+      <c r="T3" s="535"/>
+      <c r="U3" s="536"/>
+      <c r="V3" s="536"/>
+      <c r="W3" s="536"/>
+      <c r="X3" s="540"/>
+      <c r="Y3" s="535"/>
+      <c r="Z3" s="536"/>
+      <c r="AA3" s="536"/>
+      <c r="AB3" s="540"/>
+      <c r="AC3" s="535"/>
+      <c r="AD3" s="536"/>
+      <c r="AE3" s="536"/>
+      <c r="AF3" s="540"/>
+      <c r="AG3" s="535"/>
+      <c r="AH3" s="536"/>
+      <c r="AI3" s="536"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="522"/>
-      <c r="B4" s="522"/>
-      <c r="C4" s="522"/>
-      <c r="D4" s="525" t="s">
+      <c r="A4" s="565"/>
+      <c r="B4" s="565"/>
+      <c r="C4" s="565"/>
+      <c r="D4" s="546" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="525" t="s">
+      <c r="E4" s="546" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="525" t="s">
+      <c r="F4" s="546" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="549" t="s">
+      <c r="G4" s="544" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="549" t="s">
+      <c r="H4" s="544" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="549" t="s">
+      <c r="I4" s="544" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="549" t="s">
+      <c r="J4" s="544" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="552" t="s">
+      <c r="K4" s="528" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="552" t="s">
+      <c r="L4" s="528" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="554" t="s">
+      <c r="M4" s="530" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="554" t="s">
+      <c r="N4" s="530" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="558" t="s">
+      <c r="O4" s="541" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="559" t="s">
+      <c r="P4" s="542" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="559" t="s">
+      <c r="Q4" s="542" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="556" t="s">
+      <c r="R4" s="537" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="556" t="s">
+      <c r="S4" s="537" t="s">
         <v>62</v>
       </c>
-      <c r="T4" s="531" t="s">
+      <c r="T4" s="550" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="547" t="s">
+      <c r="U4" s="561" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="548"/>
-      <c r="W4" s="546" t="s">
+      <c r="V4" s="562"/>
+      <c r="W4" s="532" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="546" t="s">
+      <c r="X4" s="532" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="537" t="s">
+      <c r="Y4" s="552" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="537" t="s">
+      <c r="Z4" s="552" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="541" t="s">
+      <c r="AA4" s="556" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="542"/>
-      <c r="AC4" s="539" t="s">
+      <c r="AB4" s="557"/>
+      <c r="AC4" s="554" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="539" t="s">
+      <c r="AD4" s="554" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="544" t="s">
+      <c r="AE4" s="559" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="545"/>
-      <c r="AG4" s="525" t="s">
+      <c r="AF4" s="560"/>
+      <c r="AG4" s="546" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="525" t="s">
+      <c r="AH4" s="546" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="525" t="s">
+      <c r="AI4" s="546" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="523"/>
-      <c r="B5" s="523"/>
-      <c r="C5" s="523"/>
-      <c r="D5" s="526"/>
-      <c r="E5" s="526"/>
-      <c r="F5" s="526"/>
-      <c r="G5" s="550"/>
-      <c r="H5" s="550"/>
-      <c r="I5" s="550"/>
-      <c r="J5" s="550"/>
-      <c r="K5" s="553"/>
-      <c r="L5" s="553"/>
-      <c r="M5" s="555"/>
-      <c r="N5" s="555"/>
-      <c r="O5" s="555"/>
-      <c r="P5" s="560"/>
-      <c r="Q5" s="560"/>
-      <c r="R5" s="557"/>
-      <c r="S5" s="557"/>
-      <c r="T5" s="532"/>
+      <c r="A5" s="566"/>
+      <c r="B5" s="566"/>
+      <c r="C5" s="566"/>
+      <c r="D5" s="547"/>
+      <c r="E5" s="547"/>
+      <c r="F5" s="547"/>
+      <c r="G5" s="545"/>
+      <c r="H5" s="545"/>
+      <c r="I5" s="545"/>
+      <c r="J5" s="545"/>
+      <c r="K5" s="529"/>
+      <c r="L5" s="529"/>
+      <c r="M5" s="531"/>
+      <c r="N5" s="531"/>
+      <c r="O5" s="531"/>
+      <c r="P5" s="543"/>
+      <c r="Q5" s="543"/>
+      <c r="R5" s="538"/>
+      <c r="S5" s="538"/>
+      <c r="T5" s="551"/>
       <c r="U5" s="60" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="546"/>
-      <c r="X5" s="546"/>
-      <c r="Y5" s="538"/>
-      <c r="Z5" s="538"/>
+      <c r="W5" s="532"/>
+      <c r="X5" s="532"/>
+      <c r="Y5" s="553"/>
+      <c r="Z5" s="553"/>
       <c r="AA5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="AB5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="540"/>
-      <c r="AD5" s="540"/>
+      <c r="AC5" s="555"/>
+      <c r="AD5" s="555"/>
       <c r="AE5" s="53" t="s">
         <v>52</v>
       </c>
       <c r="AF5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="526"/>
-      <c r="AH5" s="526"/>
-      <c r="AI5" s="526"/>
+      <c r="AG5" s="547"/>
+      <c r="AH5" s="547"/>
+      <c r="AI5" s="547"/>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
@@ -62178,26 +62316,14 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="T4:T5"/>
@@ -62214,14 +62340,26 @@
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -62232,7 +62370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A136" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
@@ -64762,25 +64900,25 @@
       <c r="I126" s="470"/>
       <c r="J126" s="471"/>
     </row>
-    <row r="127" spans="1:10" s="589" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="583" t="s">
+    <row r="127" spans="1:10" s="479" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="473" t="s">
         <v>2094</v>
       </c>
-      <c r="B127" s="584" t="s">
+      <c r="B127" s="474" t="s">
         <v>1885</v>
       </c>
-      <c r="C127" s="585" t="s">
+      <c r="C127" s="475" t="s">
         <v>1762</v>
       </c>
-      <c r="D127" s="586" t="s">
+      <c r="D127" s="476" t="s">
         <v>2147</v>
       </c>
-      <c r="E127" s="587"/>
-      <c r="F127" s="587"/>
-      <c r="G127" s="587"/>
-      <c r="H127" s="587"/>
-      <c r="I127" s="587"/>
-      <c r="J127" s="588"/>
+      <c r="E127" s="477"/>
+      <c r="F127" s="477"/>
+      <c r="G127" s="477"/>
+      <c r="H127" s="477"/>
+      <c r="I127" s="477"/>
+      <c r="J127" s="478"/>
     </row>
     <row r="128" spans="1:10" s="472" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="467" t="s">
@@ -69299,10 +69437,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="561" t="s">
+      <c r="A2" s="568" t="s">
         <v>653</v>
       </c>
-      <c r="B2" s="561"/>
+      <c r="B2" s="568"/>
       <c r="C2" s="200"/>
       <c r="D2" s="200"/>
       <c r="E2" s="200"/>
@@ -69524,10 +69662,10 @@
       <c r="K12" s="148"/>
     </row>
     <row r="13" spans="1:11" s="189" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="561" t="s">
+      <c r="A13" s="568" t="s">
         <v>684</v>
       </c>
-      <c r="B13" s="561"/>
+      <c r="B13" s="568"/>
       <c r="C13" s="211"/>
       <c r="D13" s="211"/>
       <c r="E13" s="211"/>
